--- a/Grupos_Platinum - VALIDADO.xlsx
+++ b/Grupos_Platinum - VALIDADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suporte\Desktop\whatsapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F9529B-F511-4263-9EC6-D1A9327B6C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3135F554-51B8-4272-A080-2F9E866DC1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="97">
   <si>
     <t>cust_id</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Aguardando aceitar</t>
   </si>
   <si>
-    <t>Limite de Membros</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -295,6 +292,30 @@
   </si>
   <si>
     <t>120363421425151427@g.us</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/DQXC5M44C0g9SYs6N9DXWx</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/Kk5haEy6eLUJC1SS7UcRzR</t>
+  </si>
+  <si>
+    <t>Promoções do dia 0622</t>
+  </si>
+  <si>
+    <t>120363022254019135@g.us</t>
+  </si>
+  <si>
+    <t>JersuOfertas-Z5</t>
+  </si>
+  <si>
+    <t>558894229048-1596988805@g.us</t>
+  </si>
+  <si>
+    <t>PROMOÇÕES DO DIA #81</t>
+  </si>
+  <si>
+    <t>120363403634565324@g.us</t>
   </si>
 </sst>
 </file>
@@ -614,7 +635,7 @@
   <dimension ref="A1:H999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -649,67 +670,67 @@
         <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75">
       <c r="A2" s="5">
-        <v>2465561350</v>
+        <v>521944421</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75">
       <c r="A3" s="5">
-        <v>447087158</v>
+        <v>2465561350</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75">
       <c r="A4" s="5">
-        <v>16101052</v>
+        <v>1688748953</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>4</v>
@@ -718,24 +739,24 @@
         <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75">
       <c r="A5" s="5">
-        <v>1286635153</v>
+        <v>1477497679</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>4</v>
@@ -744,24 +765,18 @@
         <v>5</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75">
       <c r="A6" s="5">
-        <v>1231808348</v>
+        <v>16101052</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -770,24 +785,24 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75">
       <c r="A7" s="5">
-        <v>1464475202</v>
+        <v>1236298302</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>4</v>
@@ -796,24 +811,24 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" t="s">
-        <v>84</v>
+      <c r="F7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75">
       <c r="A8" s="5">
-        <v>1464475202</v>
+        <v>555414187</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>4</v>
@@ -822,24 +837,24 @@
         <v>5</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75">
       <c r="A9" s="5">
-        <v>1211756872</v>
+        <v>1445776663</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>4</v>
@@ -848,45 +863,39 @@
         <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75">
       <c r="A10" s="5">
-        <v>1670402214</v>
+        <v>441877091</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75">
@@ -906,18 +915,18 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75">
       <c r="A12" s="5">
-        <v>207302282</v>
+        <v>301138223</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -926,24 +935,24 @@
         <v>5</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75">
       <c r="A13" s="5">
-        <v>2490611911</v>
+        <v>1211756872</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>4</v>
@@ -952,50 +961,50 @@
         <v>5</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75">
       <c r="A14" s="5">
-        <v>521944421</v>
+        <v>1670402214</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75">
       <c r="A15" s="5">
-        <v>1803140827</v>
+        <v>447087158</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>4</v>
@@ -1004,50 +1013,50 @@
         <v>5</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75">
       <c r="A16" s="5">
-        <v>1406524799</v>
+        <v>1245410086</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="12.75">
       <c r="A17" s="5">
-        <v>1245410086</v>
+        <v>1286635153</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>4</v>
@@ -1056,50 +1065,50 @@
         <v>5</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="12.75">
       <c r="A18" s="5">
-        <v>301138223</v>
+        <v>66288574</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" t="s">
-        <v>57</v>
+      <c r="F18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="12.75">
       <c r="A19" s="5">
-        <v>555414187</v>
+        <v>1803140827</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>4</v>
@@ -1108,24 +1117,24 @@
         <v>5</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="12.75">
       <c r="A20" s="5">
-        <v>1445776663</v>
+        <v>488851324</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>4</v>
@@ -1134,24 +1143,24 @@
         <v>5</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" t="s">
-        <v>49</v>
+      <c r="F20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="12.75">
       <c r="A21" s="5">
-        <v>1317961778</v>
+        <v>1464475202</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>4</v>
@@ -1160,24 +1169,24 @@
         <v>5</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="12.75">
       <c r="A22" s="5">
-        <v>1688748953</v>
+        <v>1464475202</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>4</v>
@@ -1186,24 +1195,24 @@
         <v>5</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>88</v>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="12.75">
       <c r="A23" s="5">
-        <v>488851324</v>
+        <v>1231808348</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>4</v>
@@ -1212,18 +1221,24 @@
         <v>5</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
         <v>39</v>
       </c>
+      <c r="G23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="12.75">
       <c r="A24" s="5">
-        <v>1236298302</v>
+        <v>1317961778</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>4</v>
@@ -1232,18 +1247,24 @@
         <v>5</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="12.75">
       <c r="A25" s="5">
-        <v>441877091</v>
+        <v>207302282</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>4</v>
@@ -1252,53 +1273,71 @@
         <v>5</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="12.75">
       <c r="A26" s="5">
-        <v>1477497679</v>
+        <v>1406524799</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="12.75">
       <c r="A27" s="5">
-        <v>66288574</v>
+        <v>2490611911</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="12.75">
@@ -4220,7 +4259,7 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H27">
-      <sortCondition ref="H1"/>
+      <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
   <dataValidations count="1">
@@ -4229,32 +4268,32 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="D11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D2" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D26" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D27" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D5" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D8" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D7" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D16" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D6" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D21" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D24" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D19" r:id="rId26" xr:uid="{1A8C849F-D627-41DA-B145-BCD276E0DA71}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D3" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D5" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D8" r:id="rId24" xr:uid="{1A8C849F-D627-41DA-B145-BCD276E0DA71}"/>
+    <hyperlink ref="D18" r:id="rId25" xr:uid="{3EF7F67A-0D88-4F90-AB2D-2290B212D2AC}"/>
+    <hyperlink ref="D7" r:id="rId26" xr:uid="{43335167-847A-4D14-A19F-C5A9A3C95762}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="121" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId27"/>
@@ -4284,22 +4323,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75">
@@ -4310,7 +4349,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>6</v>
@@ -4324,7 +4363,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>7</v>
@@ -4338,16 +4377,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75">
@@ -4358,16 +4397,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75">
@@ -4378,16 +4417,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75">
@@ -4398,16 +4437,16 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75">
@@ -4418,16 +4457,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75">
@@ -4438,7 +4477,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>11</v>
@@ -4452,16 +4491,16 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75">
@@ -4472,7 +4511,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>14</v>
@@ -4486,16 +4525,16 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75">
@@ -4506,7 +4545,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>17</v>
@@ -4520,16 +4559,16 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75">
@@ -4540,16 +4579,16 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75">
@@ -4560,7 +4599,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>23</v>
@@ -4574,16 +4613,16 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75">
@@ -4594,16 +4633,16 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75">
@@ -4614,7 +4653,7 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>33</v>
@@ -4628,16 +4667,16 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75">
